--- a/fri.xlsx
+++ b/fri.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9540" windowWidth="24000" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delay" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ordernum" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="error" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="delay" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ordernum" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="error" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -140,109 +140,109 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="3" numFmtId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
     <cellStyle name="sty4" xfId="1"/>
     <cellStyle name="sty5" xfId="2"/>
     <cellStyle name="sty6" xfId="3"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -581,34 +581,34 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB53"/>
+  <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B47" xSplit="1" ySplit="2"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1"/>
+      <selection activeCell="A3" pane="bottomLeft" sqref="A3"/>
+      <selection activeCell="B55" pane="bottomRight" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col width="6.5" customWidth="1" style="20" min="1" max="1"/>
-    <col width="25.25" bestFit="1" customWidth="1" style="18" min="2" max="2"/>
-    <col width="10" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
-    <col width="9" customWidth="1" style="2" min="4" max="4"/>
-    <col width="9" customWidth="1" style="22" min="5" max="7"/>
-    <col width="9" customWidth="1" style="9" min="8" max="8"/>
-    <col width="9" customWidth="1" style="22" min="9" max="12"/>
-    <col width="9" customWidth="1" style="9" min="13" max="13"/>
-    <col width="9" customWidth="1" style="2" min="14" max="14"/>
-    <col width="9" customWidth="1" style="22" min="15" max="17"/>
-    <col width="9" customWidth="1" style="9" min="18" max="18"/>
-    <col width="9" customWidth="1" style="2" min="19" max="19"/>
-    <col width="9" customWidth="1" style="22" min="20" max="22"/>
-    <col width="9" customWidth="1" style="9" min="23" max="23"/>
-    <col width="9" customWidth="1" style="2" min="24" max="24"/>
-    <col width="9" customWidth="1" style="22" min="25" max="27"/>
-    <col width="9" customWidth="1" style="9" min="28" max="28"/>
+    <col customWidth="1" max="1" min="1" style="20" width="6.5"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="18" width="25.25"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="9" width="10"/>
+    <col customWidth="1" max="4" min="4" style="2" width="9"/>
+    <col customWidth="1" max="7" min="5" style="22" width="9"/>
+    <col customWidth="1" max="8" min="8" style="9" width="9"/>
+    <col customWidth="1" max="12" min="9" style="22" width="9"/>
+    <col customWidth="1" max="13" min="13" style="9" width="9"/>
+    <col customWidth="1" max="14" min="14" style="2" width="9"/>
+    <col customWidth="1" max="17" min="15" style="22" width="9"/>
+    <col customWidth="1" max="18" min="18" style="9" width="9"/>
+    <col customWidth="1" max="19" min="19" style="2" width="9"/>
+    <col customWidth="1" max="22" min="20" style="22" width="9"/>
+    <col customWidth="1" max="23" min="23" style="9" width="9"/>
+    <col customWidth="1" max="24" min="24" style="2" width="9"/>
+    <col customWidth="1" max="27" min="25" style="22" width="9"/>
+    <col customWidth="1" max="28" min="28" style="9" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2454,7 +2454,7 @@
         <v>0.119373</v>
       </c>
     </row>
-    <row r="27" ht="28" customHeight="1" s="20">
+    <row customHeight="1" ht="28" r="27" s="20">
       <c r="B27" s="18" t="inlineStr">
         <is>
           <t>sz01/02重新换回来，并修改提前发单设置</t>
@@ -2539,7 +2539,7 @@
         <v>0.123179</v>
       </c>
     </row>
-    <row r="28" ht="28" customHeight="1" s="20">
+    <row customHeight="1" ht="28" r="28" s="20">
       <c r="B28" s="18" t="inlineStr">
         <is>
           <t>sz02调大上海sqlserver日志文件</t>
@@ -2624,7 +2624,7 @@
         <v>0.142547</v>
       </c>
     </row>
-    <row r="29" ht="42" customHeight="1" s="20">
+    <row customHeight="1" ht="42" r="29" s="20">
       <c r="B29" s="18" t="inlineStr">
         <is>
           <t>sz01使用onload tgw，上午绑核问题，下午增大核数量，sz03增加fix用户</t>
@@ -2874,7 +2874,7 @@
         <v>0.687965</v>
       </c>
     </row>
-    <row r="32" ht="28" customHeight="1" s="20">
+    <row customHeight="1" ht="28" r="32" s="20">
       <c r="B32" s="18" t="inlineStr">
         <is>
           <t>增加sz02节点上海报盘数据库日志截断</t>
@@ -2959,7 +2959,7 @@
         <v>0.164874</v>
       </c>
     </row>
-    <row r="33" ht="28" customHeight="1" s="20">
+    <row customHeight="1" ht="28" r="33" s="20">
       <c r="B33" s="18" t="inlineStr">
         <is>
           <t>修改sh01上海报盘委托确认表索引</t>
@@ -3844,7 +3844,7 @@
         <v>2.17887</v>
       </c>
     </row>
-    <row r="44" ht="28" customHeight="1" s="20">
+    <row customHeight="1" ht="28" r="44" s="20">
       <c r="B44" s="18" t="inlineStr">
         <is>
           <t>sz02/03/04使用onload，03/04网关绑核</t>
@@ -4014,7 +4014,7 @@
         <v>0.17893</v>
       </c>
     </row>
-    <row r="46" ht="28" customHeight="1" s="20">
+    <row customHeight="1" ht="28" r="46" s="20">
       <c r="B46" s="18" t="inlineStr">
         <is>
           <t>所有节点交易及用户通讯线程绑核，sz02tgw不使用onload</t>
@@ -4259,7 +4259,7 @@
         <v>0.323314</v>
       </c>
     </row>
-    <row r="49" ht="16.5" customHeight="1" s="20">
+    <row customHeight="1" ht="16.5" r="49" s="20">
       <c r="C49" s="1" t="n">
         <v>44341</v>
       </c>
@@ -4586,86 +4586,338 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
+      <c r="A53" s="22" t="inlineStr"/>
       <c r="B53" s="25" t="inlineStr"/>
       <c r="C53" s="26" t="inlineStr">
         <is>
           <t>2021/5/29</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53" s="22" t="n">
         <v>3</v>
       </c>
       <c r="H53" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L53" s="22" t="n">
         <v>8</v>
       </c>
       <c r="M53" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="N53" t="n">
+      <c r="N53" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="O53" t="n">
+      <c r="O53" s="22" t="n">
         <v>11</v>
       </c>
-      <c r="P53" t="n">
+      <c r="P53" s="22" t="n">
         <v>12</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="Q53" s="22" t="n">
         <v>13</v>
       </c>
       <c r="R53" s="26" t="n">
         <v>14</v>
       </c>
-      <c r="S53" t="n">
+      <c r="S53" s="22" t="n">
         <v>15</v>
       </c>
-      <c r="T53" t="n">
+      <c r="T53" s="22" t="n">
         <v>16</v>
       </c>
-      <c r="U53" t="n">
+      <c r="U53" s="22" t="n">
         <v>17</v>
       </c>
-      <c r="V53" t="n">
+      <c r="V53" s="22" t="n">
         <v>18</v>
       </c>
       <c r="W53" s="26" t="n">
         <v>19</v>
       </c>
-      <c r="X53" t="n">
+      <c r="X53" s="22" t="n">
         <v>20</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="Y53" s="22" t="n">
         <v>21</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="Z53" s="22" t="n">
         <v>22</v>
       </c>
-      <c r="AA53" t="n">
+      <c r="AA53" s="22" t="n">
         <v>23</v>
       </c>
       <c r="AB53" s="26" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="22" t="inlineStr"/>
+      <c r="B54" s="25" t="inlineStr"/>
+      <c r="C54" s="26" t="inlineStr">
+        <is>
+          <t>2021/5/29</t>
+        </is>
+      </c>
+      <c r="D54" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I54" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J54" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="K54" s="22" t="n">
+        <v>7</v>
+      </c>
+      <c r="L54" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="M54" s="26" t="n">
+        <v>9</v>
+      </c>
+      <c r="N54" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O54" s="22" t="n">
+        <v>11</v>
+      </c>
+      <c r="P54" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q54" s="22" t="n">
+        <v>13</v>
+      </c>
+      <c r="R54" s="26" t="n">
+        <v>14</v>
+      </c>
+      <c r="S54" s="22" t="n">
+        <v>15</v>
+      </c>
+      <c r="T54" s="22" t="n">
+        <v>16</v>
+      </c>
+      <c r="U54" s="22" t="n">
+        <v>17</v>
+      </c>
+      <c r="V54" s="22" t="n">
+        <v>18</v>
+      </c>
+      <c r="W54" s="26" t="n">
+        <v>19</v>
+      </c>
+      <c r="X54" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y54" s="22" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z54" s="22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA54" s="22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB54" s="26" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="22" t="inlineStr"/>
+      <c r="B55" s="25" t="inlineStr"/>
+      <c r="C55" s="26" t="inlineStr">
+        <is>
+          <t>2021/5/29</t>
+        </is>
+      </c>
+      <c r="D55" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I55" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J55" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="K55" s="22" t="n">
+        <v>7</v>
+      </c>
+      <c r="L55" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="M55" s="26" t="n">
+        <v>9</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O55" s="22" t="n">
+        <v>11</v>
+      </c>
+      <c r="P55" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q55" s="22" t="n">
+        <v>13</v>
+      </c>
+      <c r="R55" s="26" t="n">
+        <v>14</v>
+      </c>
+      <c r="S55" s="22" t="n">
+        <v>15</v>
+      </c>
+      <c r="T55" s="22" t="n">
+        <v>16</v>
+      </c>
+      <c r="U55" s="22" t="n">
+        <v>17</v>
+      </c>
+      <c r="V55" s="22" t="n">
+        <v>18</v>
+      </c>
+      <c r="W55" s="26" t="n">
+        <v>19</v>
+      </c>
+      <c r="X55" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y55" s="22" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z55" s="22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA55" s="22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB55" s="26" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" s="25" t="inlineStr"/>
+      <c r="C56" s="26" t="inlineStr">
+        <is>
+          <t>2021/5/29</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>6</v>
+      </c>
+      <c r="K56" t="n">
+        <v>7</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8</v>
+      </c>
+      <c r="M56" s="26" t="n">
+        <v>9</v>
+      </c>
+      <c r="N56" t="n">
+        <v>10</v>
+      </c>
+      <c r="O56" t="n">
+        <v>11</v>
+      </c>
+      <c r="P56" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>13</v>
+      </c>
+      <c r="R56" s="26" t="n">
+        <v>14</v>
+      </c>
+      <c r="S56" t="n">
+        <v>15</v>
+      </c>
+      <c r="T56" t="n">
+        <v>16</v>
+      </c>
+      <c r="U56" t="n">
+        <v>17</v>
+      </c>
+      <c r="V56" t="n">
+        <v>18</v>
+      </c>
+      <c r="W56" s="26" t="n">
+        <v>19</v>
+      </c>
+      <c r="X56" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB56" s="26" t="n">
         <v>24</v>
       </c>
     </row>
@@ -4682,7 +4934,7 @@
     <mergeCell ref="S1:W1"/>
     <mergeCell ref="D1:H1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -4693,7 +4945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="A51" sqref="A51:XFD51"/>
@@ -4701,13 +4953,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col width="10" bestFit="1" customWidth="1" style="9" min="1" max="1"/>
-    <col width="9" customWidth="1" style="2" min="2" max="2"/>
-    <col width="9" customWidth="1" style="22" min="3" max="5"/>
-    <col width="9" customWidth="1" style="9" min="6" max="6"/>
-    <col width="9" customWidth="1" style="2" min="7" max="7"/>
-    <col width="9" customWidth="1" style="22" min="8" max="10"/>
-    <col width="9" customWidth="1" style="9" min="11" max="11"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="9" width="10"/>
+    <col customWidth="1" max="2" min="2" style="2" width="9"/>
+    <col customWidth="1" max="5" min="3" style="22" width="9"/>
+    <col customWidth="1" max="6" min="6" style="9" width="9"/>
+    <col customWidth="1" max="7" min="7" style="2" width="9"/>
+    <col customWidth="1" max="10" min="8" style="22" width="9"/>
+    <col customWidth="1" max="11" min="11" style="9" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6422,34 +6674,145 @@
           <t>2021/5/29</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53" s="22" t="n">
         <v>3</v>
       </c>
       <c r="F53" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53" s="22" t="n">
         <v>8</v>
       </c>
       <c r="K53" s="26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="26" t="inlineStr">
+        <is>
+          <t>2021/5/29</t>
+        </is>
+      </c>
+      <c r="B54" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G54" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="H54" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="I54" s="22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J54" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K54" s="26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="26" t="inlineStr">
+        <is>
+          <t>2021/5/29</t>
+        </is>
+      </c>
+      <c r="B55" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G55" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="H55" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="I55" s="22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J55" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K55" s="26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="26" t="inlineStr">
+        <is>
+          <t>2021/5/29</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3</v>
+      </c>
+      <c r="F56" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5</v>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+      <c r="I56" t="n">
+        <v>7</v>
+      </c>
+      <c r="J56" t="n">
+        <v>8</v>
+      </c>
+      <c r="K56" s="26" t="n">
         <v>9</v>
       </c>
     </row>
@@ -6459,7 +6822,7 @@
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -6470,7 +6833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="D53" sqref="D53"/>
@@ -6478,11 +6841,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col width="10" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="15.08203125" bestFit="1" customWidth="1" style="4" min="2" max="5"/>
-    <col width="15.08203125" customWidth="1" style="4" min="6" max="6"/>
-    <col width="15.25" bestFit="1" customWidth="1" style="20" min="7" max="7"/>
-    <col width="25.5" bestFit="1" customWidth="1" style="20" min="8" max="8"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="4" width="10"/>
+    <col bestFit="1" customWidth="1" max="5" min="2" style="4" width="15.08203125"/>
+    <col customWidth="1" max="6" min="6" style="4" width="15.08203125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="20" width="15.25"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="20" width="25.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7242,7 +7605,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="42" customHeight="1" s="20">
+    <row customHeight="1" ht="42" r="29" s="20">
       <c r="A29" s="5" t="n">
         <v>44308</v>
       </c>
@@ -7422,7 +7785,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="28" customHeight="1" s="20">
+    <row customHeight="1" ht="28" r="35" s="20">
       <c r="A35" s="5" t="n">
         <v>44316</v>
       </c>
@@ -7968,8 +8331,104 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" s="27" t="inlineStr">
+        <is>
+          <t>2021/5/29</t>
+        </is>
+      </c>
+      <c r="B53" s="28" t="inlineStr">
+        <is>
+          <t>no error</t>
+        </is>
+      </c>
+      <c r="C53" s="28" t="inlineStr">
+        <is>
+          <t>no error</t>
+        </is>
+      </c>
+      <c r="D53" s="28" t="inlineStr">
+        <is>
+          <t>no error</t>
+        </is>
+      </c>
+      <c r="E53" s="28" t="inlineStr">
+        <is>
+          <t>no error</t>
+        </is>
+      </c>
+      <c r="F53" s="28" t="inlineStr">
+        <is>
+          <t>no error</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="27" t="inlineStr">
+        <is>
+          <t>2021/5/29</t>
+        </is>
+      </c>
+      <c r="B54" s="28" t="inlineStr">
+        <is>
+          <t>no error</t>
+        </is>
+      </c>
+      <c r="C54" s="28" t="inlineStr">
+        <is>
+          <t>no error</t>
+        </is>
+      </c>
+      <c r="D54" s="28" t="inlineStr">
+        <is>
+          <t>no error</t>
+        </is>
+      </c>
+      <c r="E54" s="28" t="inlineStr">
+        <is>
+          <t>no error</t>
+        </is>
+      </c>
+      <c r="F54" s="28" t="inlineStr">
+        <is>
+          <t>no error</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="27" t="inlineStr">
+        <is>
+          <t>2021/5/29</t>
+        </is>
+      </c>
+      <c r="B55" s="28" t="inlineStr">
+        <is>
+          <t>no error</t>
+        </is>
+      </c>
+      <c r="C55" s="28" t="inlineStr">
+        <is>
+          <t>no error</t>
+        </is>
+      </c>
+      <c r="D55" s="28" t="inlineStr">
+        <is>
+          <t>no error</t>
+        </is>
+      </c>
+      <c r="E55" s="28" t="inlineStr">
+        <is>
+          <t>no error</t>
+        </is>
+      </c>
+      <c r="F55" s="28" t="inlineStr">
+        <is>
+          <t>no error</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>